--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29405,7 +29405,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34687,7 +34687,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34801,7 +34801,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39744,7 +39744,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39801,7 +39801,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40562,7 +40562,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40619,7 +40619,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41261,7 +41261,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42679,7 +42679,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42798,7 +42798,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42860,7 +42860,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42922,7 +42922,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42979,7 +42979,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43036,7 +43036,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43093,7 +43093,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43150,7 +43150,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43207,7 +43207,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43264,7 +43264,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43854,7 +43854,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43911,7 +43911,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43968,7 +43968,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44139,7 +44139,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44682,7 +44682,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45029,7 +45029,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45086,7 +45086,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45143,7 +45143,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45200,7 +45200,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45257,7 +45257,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45314,7 +45314,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45832,7 +45832,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45894,7 +45894,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45956,7 +45956,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46033,7 +46033,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46090,7 +46090,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46204,7 +46204,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46261,7 +46261,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46318,7 +46318,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46375,7 +46375,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46432,7 +46432,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46489,7 +46489,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46608,7 +46608,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46670,7 +46670,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46727,7 +46727,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46784,7 +46784,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46841,7 +46841,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46898,7 +46898,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46955,7 +46955,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47203,7 +47203,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47260,7 +47260,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47317,7 +47317,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47379,7 +47379,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47560,7 +47560,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48108,7 +48108,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48165,7 +48165,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48222,7 +48222,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48564,7 +48564,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48678,7 +48678,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48735,7 +48735,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48792,7 +48792,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48849,7 +48849,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48906,7 +48906,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48968,7 +48968,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49263,7 +49263,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49387,7 +49387,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49444,7 +49444,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49501,7 +49501,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49558,7 +49558,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49615,7 +49615,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49672,7 +49672,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49729,7 +49729,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49786,7 +49786,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49900,7 +49900,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49962,7 +49962,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50024,7 +50024,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50790,7 +50790,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50961,7 +50961,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51018,7 +51018,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51075,7 +51075,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51132,7 +51132,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51189,7 +51189,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51251,7 +51251,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51422,7 +51422,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51484,7 +51484,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y814"/>
+  <dimension ref="A1:Y815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,64 +2110,158 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
+          <t>A 30779-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Sandödla
+Knölspindel
+Tallticka
+Talltita
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>A 63553-2018</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43427</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>6.9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>5</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Ekticka
 Lunglav
@@ -2176,92 +2270,92 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 63553-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 63553-2018.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 63553-2018.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 63553-2018.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 63553-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 63553-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 781-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44931</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>4.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Ekticka
 Oxtungssvamp
@@ -2270,87 +2364,87 @@
 Stor aspticka</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 781-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 781-2023.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 781-2023.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 781-2023.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 781-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 781-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 24863-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>14.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>4</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Entita
@@ -2359,125 +2453,32 @@
 Svart trolldruva</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 24863-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 24863-2023.png")</f>
         <v/>
       </c>
-      <c r="U20">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 24863-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 24863-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 24863-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 24863-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 24863-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 30779-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Sandödla
-Tallticka
-Talltita
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -2491,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2671,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2856,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2948,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3311,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3402,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3585,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3676,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3767,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3858,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3944,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4116,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4202,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4288,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4374,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4460,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4546,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4632,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4722,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4813,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4903,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4993,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5084,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5170,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5256,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5436,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5706,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6146,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6325,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6415,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6505,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6595,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6680,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6770,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6859,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6944,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7029,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7114,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7199,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7289,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7378,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7472,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7562,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7750,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7839,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7928,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8013,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8098,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8183,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8272,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8357,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8442,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8531,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8616,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8701,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8790,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8875,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8965,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9055,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9145,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9235,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9409,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9499,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9584,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9674,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9764,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9853,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9942,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10027,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10116,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10205,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10294,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10379,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10468,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10557,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10646,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10703,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10760,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10817,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10874,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10951,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11008,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11065,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11122,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11179,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11236,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11298,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11355,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11412,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11469,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11526,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11583,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11640,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11697,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11754,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11811,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11868,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11925,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11982,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12039,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12096,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12153,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12210,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12267,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12324,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12381,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12438,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12495,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12552,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12609,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12666,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12723,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12780,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12837,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12894,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12951,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13013,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13075,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13137,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13194,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13251,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13313,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13370,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13427,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13484,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13541,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13598,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13660,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13717,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13779,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13836,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13893,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13950,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14007,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14064,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14121,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14178,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14235,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14292,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14349,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14406,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14463,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14520,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14577,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14634,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14691,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14748,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14805,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14862,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14919,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14976,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15038,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15095,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15152,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15209,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15271,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15333,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15395,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15457,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15519,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15576,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15633,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15690,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15747,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15804,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15861,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15918,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15975,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16037,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16099,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16161,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16223,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16285,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16342,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16399,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16456,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16513,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16570,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16627,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16689,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16746,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16803,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16860,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16917,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16974,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17036,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17098,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17155,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17212,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17269,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17326,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17383,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17445,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17502,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17559,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17673,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17730,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17787,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17844,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17901,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17958,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18015,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18072,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18129,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18191,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18253,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18315,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18377,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18434,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18491,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18548,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18605,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18662,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18719,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18776,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18833,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18890,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18947,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19004,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19061,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19118,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19175,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19232,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19289,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19346,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19408,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19465,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19522,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19579,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19636,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19693,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19755,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19812,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19869,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19926,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19983,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20040,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20097,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20154,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20211,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20268,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20325,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20382,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20439,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20496,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20553,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20610,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20667,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20724,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20781,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20895,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20952,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21009,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21066,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21123,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21185,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21242,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21299,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21356,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21418,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21475,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21537,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21594,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21651,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21708,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21765,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21822,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21879,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21941,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21998,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22060,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22122,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22179,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22236,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22293,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22355,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22417,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22479,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22536,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22598,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22660,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22717,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22779,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22836,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22898,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22955,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23012,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23069,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23126,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23183,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23240,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23364,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23426,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23483,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23540,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23602,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23659,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23721,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23783,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23840,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23902,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23959,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24021,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24078,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24140,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24197,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24274,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24331,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24393,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24450,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24512,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24569,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24626,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24683,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24740,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24797,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24854,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24916,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24973,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25035,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25092,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25149,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25206,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25263,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25320,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25382,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25444,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25501,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25558,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25620,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25677,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25739,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25796,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25853,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25910,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25967,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26029,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26091,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26153,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26215,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26272,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26334,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26396,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26458,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26515,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26572,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26629,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26686,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26748,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26810,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26872,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26934,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26991,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27053,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27110,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27167,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27224,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27281,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27338,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27395,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27452,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27509,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27566,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27623,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27680,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27737,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27794,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27851,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27908,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27965,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28022,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28079,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28136,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28198,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28260,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28317,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28374,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28431,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28488,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28545,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28602,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28659,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28716,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28773,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28830,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28887,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28944,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29001,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29058,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29115,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29172,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29229,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29286,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29348,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29405,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29462,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29519,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29576,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29633,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29690,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29747,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29804,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29866,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29923,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29980,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30042,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30104,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30166,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30223,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30280,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30342,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30399,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30461,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30518,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30575,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30632,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30689,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30746,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30803,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30860,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30917,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30974,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31031,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31088,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31145,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31202,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31259,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31316,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31378,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31435,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31492,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31549,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31606,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31663,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31720,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31777,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31834,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31891,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31948,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32005,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32067,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32124,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32181,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32238,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32295,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32352,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32409,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32466,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32528,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32585,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32642,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32699,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32756,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32813,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32870,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32927,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32984,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33041,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33098,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33160,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33217,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33274,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33331,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33393,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33450,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33507,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33564,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33626,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33688,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33745,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33802,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33864,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33921,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33983,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34040,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34102,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34164,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34226,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34283,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34345,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34402,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34459,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34516,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34573,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34630,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34687,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34744,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34801,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34863,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34920,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34977,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35034,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35091,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35148,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35205,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35262,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35319,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35376,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35433,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35490,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35567,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35624,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35681,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35738,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35795,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35852,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35909,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35966,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36023,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36080,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36137,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36194,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36251,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36308,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36365,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36427,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36489,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36551,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36608,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36670,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36727,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36784,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36841,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36898,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36955,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37012,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37069,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37126,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37183,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37240,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37297,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37354,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37411,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37468,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37530,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37592,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37649,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37726,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37783,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37840,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37897,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37954,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38011,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38068,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38125,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38182,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38244,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38301,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38363,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38420,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38477,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38539,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38596,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38678,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38740,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38797,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38854,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38916,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38978,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39040,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39102,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39164,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39221,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39278,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39335,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39392,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39449,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39506,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39563,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39620,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39682,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39744,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39801,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39858,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39915,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39972,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40029,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40091,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40153,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40210,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40272,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40334,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40391,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40448,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40505,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40562,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40619,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40681,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40743,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40800,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40857,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40914,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40971,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41028,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41085,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41142,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41199,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41261,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41323,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41380,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41442,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41504,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41566,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41628,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41685,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41747,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41809,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41871,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41933,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41990,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42047,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42104,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42161,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42218,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42275,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42332,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42389,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42446,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42503,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42560,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42617,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42679,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42736,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42798,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42860,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42922,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42979,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43036,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43093,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43150,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43207,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43264,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43326,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43388,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43450,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43507,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43569,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43626,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43683,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43740,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43797,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43854,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43911,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43968,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44025,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44082,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44139,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44201,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44258,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44315,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44372,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44429,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44486,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44543,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44600,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44682,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44739,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44796,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44853,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44915,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44972,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45029,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45086,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45143,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45200,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45257,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45314,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45371,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45428,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45485,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45542,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45599,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45656,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45713,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45770,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45832,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45894,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45956,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46033,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46090,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46147,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46204,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46261,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46318,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46375,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46432,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46489,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46546,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46608,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46670,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46727,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46784,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46841,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46898,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46955,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47032,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47089,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47146,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47203,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47260,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47317,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47379,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47441,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47498,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47560,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47622,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47679,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47736,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47793,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47850,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47927,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47989,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48046,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48108,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48165,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48222,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48279,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48336,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48393,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48450,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48507,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48564,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48621,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48678,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48735,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48792,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48849,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48906,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48968,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49030,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49087,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49149,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49206,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49263,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49325,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49387,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49444,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49501,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49558,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49615,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49672,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49729,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49786,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49843,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49900,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49962,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50024,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50086,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50143,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50205,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50262,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50319,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50376,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50433,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50490,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50547,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50604,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50666,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50728,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50790,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50847,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50904,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50961,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51018,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51075,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51132,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51189,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51251,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51308,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51365,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51422,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51484,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51531,7 +51532,7 @@
       </c>
       <c r="R813" s="2" t="inlineStr"/>
     </row>
-    <row r="814">
+    <row r="814" ht="15" customHeight="1">
       <c r="A814" t="inlineStr">
         <is>
           <t>A 37716-2023</t>
@@ -51541,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51587,6 +51588,63 @@
         <v>0</v>
       </c>
       <c r="R814" s="2" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>A 40973-2023</t>
+        </is>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C815" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G815" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0</v>
+      </c>
+      <c r="J815" t="n">
+        <v>0</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N815" t="n">
+        <v>0</v>
+      </c>
+      <c r="O815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R815" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y815"/>
+  <dimension ref="A1:Y816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51589,7 +51589,7 @@
       </c>
       <c r="R814" s="2" t="inlineStr"/>
     </row>
-    <row r="815">
+    <row r="815" ht="15" customHeight="1">
       <c r="A815" t="inlineStr">
         <is>
           <t>A 40973-2023</t>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51645,6 +51645,63 @@
         <v>0</v>
       </c>
       <c r="R815" s="2" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>A 42348-2023</t>
+        </is>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C816" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G816" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0</v>
+      </c>
+      <c r="J816" t="n">
+        <v>0</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N816" t="n">
+        <v>0</v>
+      </c>
+      <c r="O816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y816"/>
+  <dimension ref="A1:Y817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51646,17 +51646,17 @@
       </c>
       <c r="R815" s="2" t="inlineStr"/>
     </row>
-    <row r="816">
+    <row r="816" ht="15" customHeight="1">
       <c r="A816" t="inlineStr">
         <is>
-          <t>A 42348-2023</t>
+          <t>A 42331-2023</t>
         </is>
       </c>
       <c r="B816" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51669,39 +51669,96 @@
         </is>
       </c>
       <c r="G816" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0</v>
+      </c>
+      <c r="J816" t="n">
+        <v>0</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N816" t="n">
+        <v>0</v>
+      </c>
+      <c r="O816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" s="2" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>A 42348-2023</t>
+        </is>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C817" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G817" t="n">
         <v>1.1</v>
       </c>
-      <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="n">
-        <v>0</v>
-      </c>
-      <c r="J816" t="n">
-        <v>0</v>
-      </c>
-      <c r="K816" t="n">
-        <v>0</v>
-      </c>
-      <c r="L816" t="n">
-        <v>0</v>
-      </c>
-      <c r="M816" t="n">
-        <v>0</v>
-      </c>
-      <c r="N816" t="n">
-        <v>0</v>
-      </c>
-      <c r="O816" t="n">
-        <v>0</v>
-      </c>
-      <c r="P816" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q816" t="n">
-        <v>0</v>
-      </c>
-      <c r="R816" s="2" t="inlineStr"/>
+      <c r="H817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="n">
+        <v>0</v>
+      </c>
+      <c r="J817" t="n">
+        <v>0</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N817" t="n">
+        <v>0</v>
+      </c>
+      <c r="O817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R817" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43791</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44284</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43753</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44795</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44467</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44497</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>44935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43782</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44210</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44467</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44480</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44729</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44812</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44848</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44918</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44939</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44946</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44989</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43913</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44064</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44175</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44195</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44314</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44437</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>44574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44641</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44848</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44867</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44881</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44931</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44935</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45014</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45030</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>45068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43151,7 +43151,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47380,7 +47380,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47623,7 +47623,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47794,7 +47794,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47851,7 +47851,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49616,7 +49616,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49673,7 +49673,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49844,7 +49844,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50729,7 +50729,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50848,7 +50848,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50905,7 +50905,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51019,7 +51019,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51076,7 +51076,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51133,7 +51133,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51656,7 +51656,7 @@
         <v>45180</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51713,7 +51713,7 @@
         <v>45180</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y817"/>
+  <dimension ref="A1:Y818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,14 +1074,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 63105-2019</t>
+          <t>A 30779-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43791</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,45 +1093,143 @@
           <t>VÄSTERVIK</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>14.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Sandödla
+Knölspindel
+Motaggsvamp
+Orange taggsvamp
+Svartvit taggsvamp
+Tallticka
+Talltita
+Grönpyrola
+Tjockfotad fingersvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 63105-2019</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43791</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>9</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Ask
 Solvända
@@ -1144,87 +1242,87 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 63105-2019.xlsx", "A 63105-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 63105-2019.png", "A 63105-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 63105-2019.docx", "A 63105-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 63105-2019.docx", "A 63105-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 63105-2019.docx", "A 63105-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 63105-2019.docx", "A 63105-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 15252-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44284</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>4.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>9</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
@@ -1237,91 +1335,91 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 15252-2021.xlsx", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 15252-2021.png", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 15252-2021.png", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 15252-2021.docx", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 15252-2021.docx", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 15252-2021.docx", "A 15252-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 15252-2021.docx", "A 15252-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 54178-2019</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43753</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
@@ -1333,91 +1431,91 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 54178-2019.xlsx", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 54178-2019.png", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 54178-2019.png", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 54178-2019.docx", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 54178-2019.docx", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 54178-2019.docx", "A 54178-2019")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 54178-2019.docx", "A 54178-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 16243-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43917</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>10.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>6</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Raggbock
 Dvärgbägarlav
@@ -1429,87 +1527,87 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 16243-2020.xlsx", "A 16243-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 16243-2020.png", "A 16243-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 16243-2020.docx", "A 16243-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 16243-2020.docx", "A 16243-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 16243-2020.docx", "A 16243-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 16243-2020.docx", "A 16243-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 34624-2022</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44795</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>14</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>7</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Svart taggsvamp
@@ -1520,91 +1618,91 @@
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 34624-2022.xlsx", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 34624-2022.png", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 34624-2022.png", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 34624-2022.docx", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 34624-2022.docx", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 34624-2022.docx", "A 34624-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 34624-2022.docx", "A 34624-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 52916-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44120</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>6</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Orange taggsvamp
@@ -1614,91 +1712,91 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 52916-2020.xlsx", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 52916-2020.png", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 52916-2020.png", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 52916-2020.docx", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 52916-2020.docx", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 52916-2020.docx", "A 52916-2020")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 52916-2020.docx", "A 52916-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 53760-2021</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44467</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>3.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>6</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1708,92 +1806,92 @@
 Trollpipistrell</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 53760-2021.xlsx", "A 53760-2021")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 53760-2021.png", "A 53760-2021")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 53760-2021.docx", "A 53760-2021")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 53760-2021.docx", "A 53760-2021")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 53760-2021.docx", "A 53760-2021")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 53760-2021.docx", "A 53760-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 60996-2021</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44497</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>7.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>6</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Talltita
@@ -1803,91 +1901,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 60996-2021.xlsx", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 60996-2021.png", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 60996-2021.png", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 60996-2021.docx", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 60996-2021.docx", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 60996-2021.docx", "A 60996-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 60996-2021.docx", "A 60996-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 71188-2021</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44539</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>0.6</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>6</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Motaggsvamp
@@ -1897,87 +1995,87 @@
 Grovticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 71188-2021.xlsx", "A 71188-2021")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 71188-2021.png", "A 71188-2021")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 71188-2021.docx", "A 71188-2021")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 71188-2021.docx", "A 71188-2021")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 71188-2021.docx", "A 71188-2021")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 71188-2021.docx", "A 71188-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 974-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44935</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>7.2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>6</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Läderbagge
 Blanksvart trämyra
@@ -1987,92 +2085,92 @@
 Myskmadra</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 974-2023.xlsx", "A 974-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 974-2023.png", "A 974-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 974-2023.docx", "A 974-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 974-2023.docx", "A 974-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 974-2023.docx", "A 974-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 974-2023.docx", "A 974-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 11740-2023</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>2.9</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>4</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Mindre bastardsvärmare
 Skogsklocka
@@ -2082,122 +2180,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 11740-2023.xlsx", "A 11740-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 11740-2023.png", "A 11740-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 11740-2023.docx", "A 11740-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 11740-2023.docx", "A 11740-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 11740-2023.docx", "A 11740-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 11740-2023.docx", "A 11740-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 30779-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Sandödla
-Knölspindel
-Tallticka
-Talltita
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -2211,7 +2215,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2309,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2403,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2492,7 +2496,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2584,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2676,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2769,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2861,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,7 +2953,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3045,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3129,7 +3133,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3316,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3407,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3503,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3590,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3681,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3768,7 +3772,7 @@
         <v>45110</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3863,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3954,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4036,7 +4040,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4122,7 +4126,7 @@
         <v>43782</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4208,7 +4212,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4294,7 +4298,7 @@
         <v>44210</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4380,7 +4384,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4466,7 +4470,7 @@
         <v>44438</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4552,7 +4556,7 @@
         <v>44462</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4638,7 +4642,7 @@
         <v>44467</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4724,7 +4728,7 @@
         <v>44480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4810,7 +4814,7 @@
         <v>44494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4900,7 +4904,7 @@
         <v>44657</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4991,7 +4995,7 @@
         <v>44729</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5081,7 +5085,7 @@
         <v>44812</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5175,7 @@
         <v>44848</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5262,7 +5266,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5352,7 @@
         <v>44867</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5434,7 +5438,7 @@
         <v>44918</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5524,7 +5528,7 @@
         <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5614,7 +5618,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5704,7 +5708,7 @@
         <v>44946</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5798,7 @@
         <v>44979</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5884,7 +5888,7 @@
         <v>44989</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5974,7 +5978,7 @@
         <v>45011</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6064,7 +6068,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6154,7 +6158,7 @@
         <v>43377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6239,7 +6243,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6324,7 +6328,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6418,7 +6422,7 @@
         <v>43538</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6503,7 +6507,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6593,7 +6597,7 @@
         <v>43614</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6683,7 +6687,7 @@
         <v>43614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6773,7 +6777,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6858,7 +6862,7 @@
         <v>43908</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6948,7 +6952,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7037,7 +7041,7 @@
         <v>44064</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7122,7 +7126,7 @@
         <v>44175</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7207,7 +7211,7 @@
         <v>44195</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7292,7 +7296,7 @@
         <v>44314</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7382,7 +7386,7 @@
         <v>44336</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7471,7 +7475,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7565,7 +7569,7 @@
         <v>44342</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7655,7 +7659,7 @@
         <v>44343</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7749,7 +7753,7 @@
         <v>44361</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7843,7 +7847,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7932,7 +7936,7 @@
         <v>44398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8021,7 +8025,7 @@
         <v>44437</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8106,7 +8110,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8191,7 +8195,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8276,7 +8280,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8365,7 +8369,7 @@
         <v>44480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8450,7 +8454,7 @@
         <v>44498</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8535,7 +8539,7 @@
         <v>44574</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8624,7 +8628,7 @@
         <v>44641</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8709,7 +8713,7 @@
         <v>44659</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8794,7 +8798,7 @@
         <v>44697</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8883,7 +8887,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8968,7 +8972,7 @@
         <v>44825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9058,7 +9062,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9148,7 +9152,7 @@
         <v>44848</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9242,7 @@
         <v>44867</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9328,7 +9332,7 @@
         <v>44881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9417,7 +9421,7 @@
         <v>44904</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9502,7 +9506,7 @@
         <v>44931</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9592,7 +9596,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9681,7 @@
         <v>44935</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9767,7 +9771,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9857,7 +9861,7 @@
         <v>45014</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9946,7 +9950,7 @@
         <v>45030</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10035,7 +10039,7 @@
         <v>45068</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10120,7 +10124,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10209,7 +10213,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10298,7 +10302,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10387,7 +10391,7 @@
         <v>45089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10472,7 +10476,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10561,7 +10565,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10650,7 +10654,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10707,7 +10711,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10764,7 +10768,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10821,7 +10825,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10878,7 +10882,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10955,7 +10959,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11012,7 +11016,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11069,7 +11073,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11126,7 +11130,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11183,7 +11187,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11240,7 +11244,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11302,7 +11306,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11359,7 +11363,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11416,7 +11420,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11473,7 +11477,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11530,7 +11534,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11587,7 +11591,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11644,7 +11648,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11701,7 +11705,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11758,7 +11762,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11815,7 +11819,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11872,7 +11876,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11929,7 +11933,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11986,7 +11990,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12043,7 +12047,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12100,7 +12104,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12157,7 +12161,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12214,7 +12218,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12271,7 +12275,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12328,7 +12332,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12385,7 +12389,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12442,7 +12446,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12499,7 +12503,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12556,7 +12560,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12613,7 +12617,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12670,7 +12674,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12727,7 +12731,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12784,7 +12788,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12841,7 +12845,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12898,7 +12902,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12955,7 +12959,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13017,7 +13021,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13079,7 +13083,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13141,7 +13145,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13198,7 +13202,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13255,7 +13259,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13317,7 +13321,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13374,7 +13378,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13431,7 +13435,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13488,7 +13492,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13545,7 +13549,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13602,7 +13606,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13664,7 +13668,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13721,7 +13725,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13783,7 +13787,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13840,7 +13844,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13897,7 +13901,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13954,7 +13958,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14011,7 +14015,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14068,7 +14072,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14125,7 +14129,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14182,7 +14186,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14239,7 +14243,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14296,7 +14300,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14353,7 +14357,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14410,7 +14414,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14467,7 +14471,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14524,7 +14528,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14581,7 +14585,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14638,7 +14642,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14695,7 +14699,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14752,7 +14756,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14809,7 +14813,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14866,7 +14870,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14923,7 +14927,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14980,7 +14984,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15042,7 +15046,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15099,7 +15103,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15156,7 +15160,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15213,7 +15217,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15275,7 +15279,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15337,7 +15341,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15399,7 +15403,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15461,7 +15465,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15523,7 +15527,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15580,7 +15584,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15637,7 +15641,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15694,7 +15698,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15751,7 +15755,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15808,7 +15812,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15865,7 +15869,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15922,7 +15926,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15979,7 +15983,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16041,7 +16045,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16103,7 +16107,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16165,7 +16169,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16227,7 +16231,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16289,7 +16293,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16346,7 +16350,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16403,7 +16407,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16460,7 +16464,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16517,7 +16521,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16574,7 +16578,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16631,7 +16635,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16693,7 +16697,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16750,7 +16754,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16807,7 +16811,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16864,7 +16868,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16921,7 +16925,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16978,7 +16982,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17040,7 +17044,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17102,7 +17106,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17159,7 +17163,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17216,7 +17220,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17273,7 +17277,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17330,7 +17334,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17387,7 +17391,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17449,7 +17453,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17506,7 +17510,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17563,7 +17567,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17620,7 +17624,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17677,7 +17681,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17734,7 +17738,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17791,7 +17795,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17848,7 +17852,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17905,7 +17909,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17962,7 +17966,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18019,7 +18023,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18076,7 +18080,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18133,7 +18137,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18195,7 +18199,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18257,7 +18261,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18319,7 +18323,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18381,7 +18385,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18438,7 +18442,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18495,7 +18499,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18552,7 +18556,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18609,7 +18613,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18666,7 +18670,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18723,7 +18727,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18780,7 +18784,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18837,7 +18841,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18894,7 +18898,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18951,7 +18955,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19008,7 +19012,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19065,7 +19069,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19122,7 +19126,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19179,7 +19183,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19236,7 +19240,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19293,7 +19297,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19350,7 +19354,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19412,7 +19416,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19469,7 +19473,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19526,7 +19530,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19583,7 +19587,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19640,7 +19644,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19697,7 +19701,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19759,7 +19763,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19816,7 +19820,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19873,7 +19877,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19930,7 +19934,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19987,7 +19991,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20044,7 +20048,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20101,7 +20105,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20158,7 +20162,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20215,7 +20219,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20272,7 +20276,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20329,7 +20333,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20386,7 +20390,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20443,7 +20447,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20500,7 +20504,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20557,7 +20561,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20614,7 +20618,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20671,7 +20675,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20728,7 +20732,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20785,7 +20789,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20842,7 +20846,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20899,7 +20903,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20956,7 +20960,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21013,7 +21017,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21070,7 +21074,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21127,7 +21131,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21189,7 +21193,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21246,7 +21250,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21303,7 +21307,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21360,7 +21364,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21422,7 +21426,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21479,7 +21483,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21541,7 +21545,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21598,7 +21602,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21655,7 +21659,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21712,7 +21716,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21769,7 +21773,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21826,7 +21830,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21883,7 +21887,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21945,7 +21949,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22002,7 +22006,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22064,7 +22068,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22126,7 +22130,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22183,7 +22187,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22240,7 +22244,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22297,7 +22301,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22359,7 +22363,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22421,7 +22425,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22483,7 +22487,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22540,7 +22544,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22602,7 +22606,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22664,7 +22668,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22721,7 +22725,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22783,7 +22787,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22840,7 +22844,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22902,7 +22906,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22959,7 +22963,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23016,7 +23020,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23073,7 +23077,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23130,7 +23134,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23187,7 +23191,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23244,7 +23248,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23306,7 +23310,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23368,7 +23372,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23430,7 +23434,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23487,7 +23491,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23544,7 +23548,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23606,7 +23610,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23663,7 +23667,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23725,7 +23729,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23787,7 +23791,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23844,7 +23848,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23906,7 +23910,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23963,7 +23967,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24025,7 +24029,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24082,7 +24086,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24144,7 +24148,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24201,7 +24205,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24278,7 +24282,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24335,7 +24339,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24397,7 +24401,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24454,7 +24458,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24516,7 +24520,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24573,7 +24577,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24630,7 +24634,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24687,7 +24691,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24744,7 +24748,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24801,7 +24805,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24858,7 +24862,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24920,7 +24924,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24977,7 +24981,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25039,7 +25043,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25096,7 +25100,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25153,7 +25157,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25210,7 +25214,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25267,7 +25271,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25324,7 +25328,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25386,7 +25390,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25448,7 +25452,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25505,7 +25509,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25562,7 +25566,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25624,7 +25628,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25681,7 +25685,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25743,7 +25747,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25800,7 +25804,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25857,7 +25861,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25914,7 +25918,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25971,7 +25975,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26033,7 +26037,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26095,7 +26099,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26157,7 +26161,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26219,7 +26223,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26276,7 +26280,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26338,7 +26342,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26400,7 +26404,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26462,7 +26466,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26519,7 +26523,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26576,7 +26580,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26633,7 +26637,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26690,7 +26694,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26752,7 +26756,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26814,7 +26818,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26876,7 +26880,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26938,7 +26942,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26995,7 +26999,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27057,7 +27061,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27114,7 +27118,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27171,7 +27175,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27228,7 +27232,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27285,7 +27289,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27342,7 +27346,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27399,7 +27403,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27456,7 +27460,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27513,7 +27517,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27570,7 +27574,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27627,7 +27631,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27684,7 +27688,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27741,7 +27745,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27798,7 +27802,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27855,7 +27859,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27912,7 +27916,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27969,7 +27973,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28026,7 +28030,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28083,7 +28087,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28140,7 +28144,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28202,7 +28206,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28264,7 +28268,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28321,7 +28325,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28378,7 +28382,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28435,7 +28439,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28492,7 +28496,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28549,7 +28553,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28606,7 +28610,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28663,7 +28667,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28720,7 +28724,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28777,7 +28781,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28834,7 +28838,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28891,7 +28895,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28948,7 +28952,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29005,7 +29009,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29062,7 +29066,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29119,7 +29123,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29176,7 +29180,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29233,7 +29237,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29290,7 +29294,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29352,7 +29356,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29409,7 +29413,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29466,7 +29470,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29523,7 +29527,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29580,7 +29584,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29637,7 +29641,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29694,7 +29698,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29751,7 +29755,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29808,7 +29812,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29870,7 +29874,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29927,7 +29931,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29984,7 +29988,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30046,7 +30050,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30108,7 +30112,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30170,7 +30174,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30227,7 +30231,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30284,7 +30288,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30346,7 +30350,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30403,7 +30407,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30465,7 +30469,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30522,7 +30526,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30579,7 +30583,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30636,7 +30640,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30693,7 +30697,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30750,7 +30754,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30807,7 +30811,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30864,7 +30868,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30921,7 +30925,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30978,7 +30982,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31035,7 +31039,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31092,7 +31096,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31149,7 +31153,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31206,7 +31210,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31263,7 +31267,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31320,7 +31324,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31382,7 +31386,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31439,7 +31443,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31496,7 +31500,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31553,7 +31557,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31610,7 +31614,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31667,7 +31671,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31724,7 +31728,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31781,7 +31785,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31838,7 +31842,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31895,7 +31899,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31952,7 +31956,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32009,7 +32013,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32071,7 +32075,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32128,7 +32132,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32185,7 +32189,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32242,7 +32246,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32299,7 +32303,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32356,7 +32360,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32413,7 +32417,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32470,7 +32474,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32532,7 +32536,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32589,7 +32593,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32646,7 +32650,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32703,7 +32707,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32760,7 +32764,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32817,7 +32821,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32874,7 +32878,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32931,7 +32935,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32988,7 +32992,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33045,7 +33049,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33102,7 +33106,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33164,7 +33168,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33221,7 +33225,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33278,7 +33282,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33335,7 +33339,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33397,7 +33401,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33454,7 +33458,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33511,7 +33515,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33568,7 +33572,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33630,7 +33634,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33692,7 +33696,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33749,7 +33753,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33806,7 +33810,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33868,7 +33872,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33925,7 +33929,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33987,7 +33991,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34044,7 +34048,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34106,7 +34110,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34168,7 +34172,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34230,7 +34234,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34287,7 +34291,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34349,7 +34353,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34406,7 +34410,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34463,7 +34467,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34520,7 +34524,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34577,7 +34581,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34634,7 +34638,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34691,7 +34695,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34748,7 +34752,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34805,7 +34809,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34867,7 +34871,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34924,7 +34928,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34981,7 +34985,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35038,7 +35042,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35095,7 +35099,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35152,7 +35156,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35209,7 +35213,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35266,7 +35270,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35323,7 +35327,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35380,7 +35384,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35437,7 +35441,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35494,7 +35498,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35571,7 +35575,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35628,7 +35632,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35685,7 +35689,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35742,7 +35746,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35799,7 +35803,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35856,7 +35860,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35913,7 +35917,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35970,7 +35974,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36027,7 +36031,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36084,7 +36088,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36141,7 +36145,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36198,7 +36202,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36255,7 +36259,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36312,7 +36316,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36369,7 +36373,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36431,7 +36435,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36493,7 +36497,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36555,7 +36559,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36612,7 +36616,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36674,7 +36678,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36731,7 +36735,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36788,7 +36792,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36845,7 +36849,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36902,7 +36906,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36959,7 +36963,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37016,7 +37020,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37073,7 +37077,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37130,7 +37134,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37187,7 +37191,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37244,7 +37248,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37301,7 +37305,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37358,7 +37362,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37415,7 +37419,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37472,7 +37476,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37534,7 +37538,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37596,7 +37600,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37653,7 +37657,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37730,7 +37734,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37787,7 +37791,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37844,7 +37848,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37901,7 +37905,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37958,7 +37962,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38015,7 +38019,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38072,7 +38076,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38129,7 +38133,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38186,7 +38190,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38248,7 +38252,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38305,7 +38309,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38367,7 +38371,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38424,7 +38428,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38481,7 +38485,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38543,7 +38547,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38600,7 +38604,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38682,7 +38686,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38744,7 +38748,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38801,7 +38805,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38858,7 +38862,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38920,7 +38924,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38982,7 +38986,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39044,7 +39048,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39106,7 +39110,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39168,7 +39172,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39225,7 +39229,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39282,7 +39286,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39339,7 +39343,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39396,7 +39400,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39453,7 +39457,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39510,7 +39514,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39567,7 +39571,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39624,7 +39628,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39686,7 +39690,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39748,7 +39752,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39805,7 +39809,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39862,7 +39866,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39919,7 +39923,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39976,7 +39980,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40033,7 +40037,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40095,7 +40099,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40157,7 +40161,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40214,7 +40218,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40276,7 +40280,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40338,7 +40342,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40395,7 +40399,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40452,7 +40456,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40509,7 +40513,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40566,7 +40570,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40623,7 +40627,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40685,7 +40689,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40747,7 +40751,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40804,7 +40808,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40861,7 +40865,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40918,7 +40922,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40975,7 +40979,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41032,7 +41036,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41089,7 +41093,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41146,7 +41150,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41203,7 +41207,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41265,7 +41269,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41327,7 +41331,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41384,7 +41388,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41446,7 +41450,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41508,7 +41512,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41570,7 +41574,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41632,7 +41636,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41689,7 +41693,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41751,7 +41755,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41813,7 +41817,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41875,7 +41879,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41937,7 +41941,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41994,7 +41998,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42051,7 +42055,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42108,7 +42112,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42165,7 +42169,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42222,7 +42226,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42279,7 +42283,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42336,7 +42340,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42393,7 +42397,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42450,7 +42454,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42507,7 +42511,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42564,7 +42568,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42621,7 +42625,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42683,7 +42687,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42740,7 +42744,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42802,7 +42806,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42864,7 +42868,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42926,7 +42930,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42983,7 +42987,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43040,7 +43044,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43097,7 +43101,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43154,7 +43158,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43211,7 +43215,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43268,7 +43272,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43330,7 +43334,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43392,7 +43396,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43454,7 +43458,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43511,7 +43515,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43573,7 +43577,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43630,7 +43634,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43687,7 +43691,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43744,7 +43748,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43801,7 +43805,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43858,7 +43862,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43915,7 +43919,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43972,7 +43976,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44029,7 +44033,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44086,7 +44090,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44143,7 +44147,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44205,7 +44209,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44262,7 +44266,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44319,7 +44323,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44376,7 +44380,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44433,7 +44437,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44490,7 +44494,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44547,7 +44551,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44604,7 +44608,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44686,7 +44690,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44743,7 +44747,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44800,7 +44804,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44857,7 +44861,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44919,7 +44923,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44976,7 +44980,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45033,7 +45037,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45090,7 +45094,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45147,7 +45151,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45204,7 +45208,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45261,7 +45265,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45318,7 +45322,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45375,7 +45379,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45432,7 +45436,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45489,7 +45493,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45546,7 +45550,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45603,7 +45607,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45660,7 +45664,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45717,7 +45721,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45774,7 +45778,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45836,7 +45840,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45898,7 +45902,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45960,7 +45964,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46037,7 +46041,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46094,7 +46098,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46151,7 +46155,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46208,7 +46212,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46265,7 +46269,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46322,7 +46326,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46379,7 +46383,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46436,7 +46440,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46493,7 +46497,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46550,7 +46554,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46612,7 +46616,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46674,7 +46678,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46731,7 +46735,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46788,7 +46792,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46845,7 +46849,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46902,7 +46906,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46959,7 +46963,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47036,7 +47040,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47093,7 +47097,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47150,7 +47154,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47207,7 +47211,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47264,7 +47268,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47321,7 +47325,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47383,7 +47387,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47445,7 +47449,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47502,7 +47506,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47564,7 +47568,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47626,7 +47630,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47683,7 +47687,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47740,7 +47744,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47797,7 +47801,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47854,7 +47858,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47931,7 +47935,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47993,7 +47997,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48050,7 +48054,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48112,7 +48116,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48169,7 +48173,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48226,7 +48230,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48283,7 +48287,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48340,7 +48344,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48397,7 +48401,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48454,7 +48458,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48511,7 +48515,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48568,7 +48572,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48625,7 +48629,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48682,7 +48686,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48739,7 +48743,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48796,7 +48800,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48853,7 +48857,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48910,7 +48914,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48972,7 +48976,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49034,7 +49038,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49091,7 +49095,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49153,7 +49157,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49210,7 +49214,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49267,7 +49271,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49329,7 +49333,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49391,7 +49395,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49448,7 +49452,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49505,7 +49509,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49562,7 +49566,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49619,7 +49623,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49676,7 +49680,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49733,7 +49737,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49790,7 +49794,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49847,7 +49851,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49904,7 +49908,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49966,7 +49970,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50028,7 +50032,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50090,7 +50094,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50147,7 +50151,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50209,7 +50213,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50266,7 +50270,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50323,7 +50327,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50380,7 +50384,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50437,7 +50441,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50494,7 +50498,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50551,7 +50555,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50608,7 +50612,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50670,7 +50674,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50732,7 +50736,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50794,7 +50798,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50851,7 +50855,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50908,7 +50912,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50965,7 +50969,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51022,7 +51026,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51079,7 +51083,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51136,7 +51140,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51193,7 +51197,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51255,7 +51259,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51312,7 +51316,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51369,7 +51373,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51426,7 +51430,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51488,7 +51492,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51545,7 +51549,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51602,7 +51606,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51659,7 +51663,7 @@
         <v>45180</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51706,7 +51710,7 @@
       </c>
       <c r="R816" s="2" t="inlineStr"/>
     </row>
-    <row r="817">
+    <row r="817" ht="15" customHeight="1">
       <c r="A817" t="inlineStr">
         <is>
           <t>A 42348-2023</t>
@@ -51716,7 +51720,7 @@
         <v>45180</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51762,6 +51766,63 @@
         <v>0</v>
       </c>
       <c r="R817" s="2" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>A 43759-2023</t>
+        </is>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C818" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G818" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0</v>
+      </c>
+      <c r="I818" t="n">
+        <v>0</v>
+      </c>
+      <c r="J818" t="n">
+        <v>0</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N818" t="n">
+        <v>0</v>
+      </c>
+      <c r="O818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R818" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44393</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44284</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44795</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44497</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44994</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45110</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43782</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44210</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44438</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>44462</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44467</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44657</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>44729</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44812</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44848</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44867</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>44918</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44946</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44979</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44989</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45011</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43538</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43614</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43908</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44064</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44175</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44195</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44314</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44336</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44342</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44343</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44361</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44437</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44498</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44574</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44641</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44659</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44697</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44848</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44867</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>44881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44904</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44931</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44935</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45014</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45030</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>45068</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34110,7 +34110,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35689,7 +35689,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35974,7 +35974,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37077,7 +37077,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37657,7 +37657,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38748,7 +38748,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39048,7 +39048,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39172,7 +39172,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39229,7 +39229,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39286,7 +39286,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39343,7 +39343,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39400,7 +39400,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39571,7 +39571,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39628,7 +39628,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39752,7 +39752,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39809,7 +39809,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39980,7 +39980,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40037,7 +40037,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40570,7 +40570,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41269,7 +41269,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41331,7 +41331,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41388,7 +41388,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41636,7 +41636,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41693,7 +41693,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42169,7 +42169,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42340,7 +42340,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42397,7 +42397,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42454,7 +42454,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42568,7 +42568,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43515,7 +43515,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44209,7 +44209,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44380,7 +44380,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45094,7 +45094,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45322,7 +45322,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45436,7 +45436,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45607,7 +45607,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45664,7 +45664,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46041,7 +46041,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46098,7 +46098,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46155,7 +46155,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46326,7 +46326,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46383,7 +46383,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46554,7 +46554,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46616,7 +46616,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47568,7 +47568,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47687,7 +47687,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47744,7 +47744,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47801,7 +47801,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47858,7 +47858,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47935,7 +47935,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48116,7 +48116,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48173,7 +48173,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48230,7 +48230,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48401,7 +48401,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48458,7 +48458,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48515,7 +48515,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48572,7 +48572,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48743,7 +48743,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48800,7 +48800,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48857,7 +48857,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48914,7 +48914,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49095,7 +49095,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49157,7 +49157,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49271,7 +49271,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49333,7 +49333,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49395,7 +49395,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49566,7 +49566,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49623,7 +49623,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49737,7 +49737,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49794,7 +49794,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49851,7 +49851,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50674,7 +50674,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50736,7 +50736,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50798,7 +50798,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50855,7 +50855,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51083,7 +51083,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51140,7 +51140,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51197,7 +51197,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51259,7 +51259,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51316,7 +51316,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51373,7 +51373,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51430,7 +51430,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51549,7 +51549,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51606,7 +51606,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51663,7 +51663,7 @@
         <v>45180</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51720,7 +51720,7 @@
         <v>45180</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51777,7 +51777,7 @@
         <v>45187</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,59 +874,160 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A 30779-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Knärot
+Sandödla
+Knölspindel
+Koralltaggsvamp
+Motaggsvamp
+Orange taggsvamp
+Svartvit taggsvamp
+Tallticka
+Talltita
+Grovticka
+Grönpyrola
+Tjockfotad fingersvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A 7757-2021</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44239</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>11.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>12</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
@@ -942,91 +1043,91 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 7757-2021.xlsx", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 7757-2021.png", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 7757-2021.png", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 7757-2021.docx", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 7757-2021.docx", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 7757-2021.docx", "A 7757-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 7757-2021.docx", "A 7757-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 37023-2021</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>5.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>12</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bredbrämad bastardsvärmare
@@ -1042,130 +1143,32 @@
 Mattlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 37023-2021.xlsx", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 37023-2021.png", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 37023-2021.png", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 37023-2021.docx", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 37023-2021.docx", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 37023-2021.docx", "A 37023-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 37023-2021.docx", "A 37023-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 30779-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Sandödla
-Knölspindel
-Motaggsvamp
-Orange taggsvamp
-Svartvit taggsvamp
-Tallticka
-Talltita
-Grönpyrola
-Tjockfotad fingersvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -1179,7 +1182,7 @@
         <v>43791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1280,7 @@
         <v>44284</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1377,7 @@
         <v>43753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1473,7 @@
         <v>43917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1565,7 @@
         <v>44795</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1660,7 @@
         <v>44120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,7 +1754,7 @@
         <v>44467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1841,7 +1844,7 @@
         <v>44497</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1943,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2033,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2123,7 @@
         <v>44994</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2215,7 +2218,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2309,7 +2312,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2406,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2496,7 +2499,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,7 +2587,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2679,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2772,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2861,7 +2864,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2953,7 +2956,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3045,7 +3048,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3133,7 +3136,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3225,7 +3228,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3319,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3407,7 +3410,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3503,7 +3506,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3590,7 +3593,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3681,7 +3684,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3775,7 @@
         <v>45110</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3866,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3957,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4043,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4126,7 +4129,7 @@
         <v>43782</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4212,7 +4215,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4298,7 +4301,7 @@
         <v>44210</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4387,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4470,7 +4473,7 @@
         <v>44438</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4559,7 @@
         <v>44462</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4642,7 +4645,7 @@
         <v>44467</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4728,7 +4731,7 @@
         <v>44480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4814,7 +4817,7 @@
         <v>44494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4907,7 @@
         <v>44657</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4995,7 +4998,7 @@
         <v>44729</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5088,7 @@
         <v>44812</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5175,7 +5178,7 @@
         <v>44848</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5266,7 +5269,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5352,7 +5355,7 @@
         <v>44867</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5438,7 +5441,7 @@
         <v>44918</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5528,7 +5531,7 @@
         <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5618,7 +5621,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5708,7 +5711,7 @@
         <v>44946</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5798,7 +5801,7 @@
         <v>44979</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5888,7 +5891,7 @@
         <v>44989</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5981,7 @@
         <v>45011</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6068,7 +6071,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6158,7 +6161,7 @@
         <v>43377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6243,7 +6246,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6328,7 +6331,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6422,7 +6425,7 @@
         <v>43538</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6510,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6597,7 +6600,7 @@
         <v>43614</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6687,7 +6690,7 @@
         <v>43614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6777,7 +6780,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6862,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6952,7 +6955,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7041,7 +7044,7 @@
         <v>44064</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7126,7 +7129,7 @@
         <v>44175</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7211,7 +7214,7 @@
         <v>44195</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7296,7 +7299,7 @@
         <v>44314</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7386,7 +7389,7 @@
         <v>44336</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7475,7 +7478,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7569,7 +7572,7 @@
         <v>44342</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7659,7 +7662,7 @@
         <v>44343</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7753,7 +7756,7 @@
         <v>44361</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7847,7 +7850,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7936,7 +7939,7 @@
         <v>44398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8025,7 +8028,7 @@
         <v>44437</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8110,7 +8113,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8195,7 +8198,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8280,7 +8283,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8369,7 +8372,7 @@
         <v>44480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8454,7 +8457,7 @@
         <v>44498</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8539,7 +8542,7 @@
         <v>44574</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8628,7 +8631,7 @@
         <v>44641</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8713,7 +8716,7 @@
         <v>44659</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8798,7 +8801,7 @@
         <v>44697</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8887,7 +8890,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8972,7 +8975,7 @@
         <v>44825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9062,7 +9065,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9155,7 @@
         <v>44848</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9242,7 +9245,7 @@
         <v>44867</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9332,7 +9335,7 @@
         <v>44881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9421,7 +9424,7 @@
         <v>44904</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9506,7 +9509,7 @@
         <v>44931</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9596,7 +9599,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9681,7 +9684,7 @@
         <v>44935</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9771,7 +9774,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9861,7 +9864,7 @@
         <v>45014</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9950,7 +9953,7 @@
         <v>45030</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10039,7 +10042,7 @@
         <v>45068</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10124,7 +10127,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10213,7 +10216,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10302,7 +10305,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10391,7 +10394,7 @@
         <v>45089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10476,7 +10479,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10565,7 +10568,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10654,7 +10657,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10711,7 +10714,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10768,7 +10771,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10825,7 +10828,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10882,7 +10885,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10959,7 +10962,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11016,7 +11019,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11073,7 +11076,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11130,7 +11133,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11187,7 +11190,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11244,7 +11247,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11306,7 +11309,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11363,7 +11366,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11420,7 +11423,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11477,7 +11480,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11534,7 +11537,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11591,7 +11594,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11648,7 +11651,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11705,7 +11708,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11762,7 +11765,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11819,7 +11822,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11876,7 +11879,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11933,7 +11936,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11990,7 +11993,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12047,7 +12050,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12104,7 +12107,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12161,7 +12164,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12218,7 +12221,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12275,7 +12278,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12332,7 +12335,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12389,7 +12392,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12446,7 +12449,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12503,7 +12506,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12560,7 +12563,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12617,7 +12620,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12674,7 +12677,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12731,7 +12734,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12788,7 +12791,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12845,7 +12848,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12902,7 +12905,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12959,7 +12962,7 @@
         <v>43427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13021,7 +13024,7 @@
         <v>43427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13083,7 +13086,7 @@
         <v>43427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13145,7 +13148,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13202,7 +13205,7 @@
         <v>43431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13259,7 +13262,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13321,7 +13324,7 @@
         <v>43436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13378,7 +13381,7 @@
         <v>43437</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13435,7 +13438,7 @@
         <v>43437</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13492,7 +13495,7 @@
         <v>43437</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13549,7 +13552,7 @@
         <v>43438</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13606,7 +13609,7 @@
         <v>43439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13668,7 +13671,7 @@
         <v>43439</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13725,7 +13728,7 @@
         <v>43439</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13787,7 +13790,7 @@
         <v>43439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13844,7 +13847,7 @@
         <v>43440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13901,7 +13904,7 @@
         <v>43444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13958,7 +13961,7 @@
         <v>43444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14015,7 +14018,7 @@
         <v>43444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14072,7 +14075,7 @@
         <v>43444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14129,7 +14132,7 @@
         <v>43444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14186,7 +14189,7 @@
         <v>43444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14243,7 +14246,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14300,7 +14303,7 @@
         <v>43447</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14357,7 +14360,7 @@
         <v>43448</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14414,7 +14417,7 @@
         <v>43454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14471,7 +14474,7 @@
         <v>43454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14528,7 +14531,7 @@
         <v>43454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14585,7 +14588,7 @@
         <v>43454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14642,7 +14645,7 @@
         <v>43455</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14699,7 +14702,7 @@
         <v>43455</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14756,7 +14759,7 @@
         <v>43469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14813,7 +14816,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14870,7 +14873,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14927,7 +14930,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14984,7 +14987,7 @@
         <v>43488</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15046,7 +15049,7 @@
         <v>43488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15103,7 +15106,7 @@
         <v>43488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15160,7 +15163,7 @@
         <v>43489</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15217,7 +15220,7 @@
         <v>43489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15279,7 +15282,7 @@
         <v>43489</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15341,7 +15344,7 @@
         <v>43489</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15403,7 +15406,7 @@
         <v>43489</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15465,7 +15468,7 @@
         <v>43489</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15527,7 +15530,7 @@
         <v>43493</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15584,7 +15587,7 @@
         <v>43494</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15641,7 +15644,7 @@
         <v>43494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15698,7 +15701,7 @@
         <v>43494</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15755,7 +15758,7 @@
         <v>43494</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15812,7 +15815,7 @@
         <v>43494</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15869,7 +15872,7 @@
         <v>43507</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15926,7 +15929,7 @@
         <v>43511</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15983,7 +15986,7 @@
         <v>43514</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16045,7 +16048,7 @@
         <v>43514</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16107,7 +16110,7 @@
         <v>43514</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16169,7 +16172,7 @@
         <v>43514</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16231,7 +16234,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16293,7 +16296,7 @@
         <v>43516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16350,7 +16353,7 @@
         <v>43516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16407,7 +16410,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16464,7 +16467,7 @@
         <v>43518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16521,7 +16524,7 @@
         <v>43518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16578,7 +16581,7 @@
         <v>43521</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16635,7 +16638,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16697,7 +16700,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16754,7 +16757,7 @@
         <v>43521</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16811,7 +16814,7 @@
         <v>43522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16868,7 +16871,7 @@
         <v>43529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16925,7 +16928,7 @@
         <v>43529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16982,7 +16985,7 @@
         <v>43531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17044,7 +17047,7 @@
         <v>43531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17106,7 +17109,7 @@
         <v>43533</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17163,7 +17166,7 @@
         <v>43537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17220,7 +17223,7 @@
         <v>43538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17277,7 +17280,7 @@
         <v>43539</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17334,7 +17337,7 @@
         <v>43539</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17391,7 +17394,7 @@
         <v>43543</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17453,7 +17456,7 @@
         <v>43543</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17510,7 +17513,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17567,7 +17570,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17624,7 +17627,7 @@
         <v>43550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17681,7 +17684,7 @@
         <v>43551</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17738,7 +17741,7 @@
         <v>43551</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17795,7 +17798,7 @@
         <v>43559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17852,7 +17855,7 @@
         <v>43559</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17909,7 +17912,7 @@
         <v>43559</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17966,7 +17969,7 @@
         <v>43560</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18023,7 +18026,7 @@
         <v>43560</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18080,7 +18083,7 @@
         <v>43564</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18137,7 +18140,7 @@
         <v>43565</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18199,7 +18202,7 @@
         <v>43566</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18261,7 +18264,7 @@
         <v>43567</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18323,7 +18326,7 @@
         <v>43567</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18385,7 +18388,7 @@
         <v>43571</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18442,7 +18445,7 @@
         <v>43598</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18499,7 +18502,7 @@
         <v>43599</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18556,7 +18559,7 @@
         <v>43599</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18613,7 +18616,7 @@
         <v>43599</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18670,7 +18673,7 @@
         <v>43599</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18727,7 +18730,7 @@
         <v>43599</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18784,7 +18787,7 @@
         <v>43600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18841,7 +18844,7 @@
         <v>43601</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18898,7 +18901,7 @@
         <v>43602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18955,7 +18958,7 @@
         <v>43606</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19012,7 +19015,7 @@
         <v>43608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19069,7 +19072,7 @@
         <v>43608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19126,7 +19129,7 @@
         <v>43612</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19183,7 +19186,7 @@
         <v>43612</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19240,7 +19243,7 @@
         <v>43612</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19297,7 +19300,7 @@
         <v>43612</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19354,7 +19357,7 @@
         <v>43614</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19416,7 +19419,7 @@
         <v>43619</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19473,7 +19476,7 @@
         <v>43619</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19530,7 +19533,7 @@
         <v>43624</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19587,7 +19590,7 @@
         <v>43626</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19644,7 +19647,7 @@
         <v>43626</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19701,7 +19704,7 @@
         <v>43627</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19763,7 +19766,7 @@
         <v>43633</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19820,7 +19823,7 @@
         <v>43633</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19877,7 +19880,7 @@
         <v>43633</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19934,7 +19937,7 @@
         <v>43640</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19991,7 +19994,7 @@
         <v>43643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20048,7 +20051,7 @@
         <v>43643</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20105,7 +20108,7 @@
         <v>43643</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20162,7 +20165,7 @@
         <v>43646</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20219,7 +20222,7 @@
         <v>43646</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20276,7 +20279,7 @@
         <v>43646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20333,7 +20336,7 @@
         <v>43646</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20390,7 +20393,7 @@
         <v>43651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20447,7 +20450,7 @@
         <v>43651</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20504,7 +20507,7 @@
         <v>43651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20561,7 +20564,7 @@
         <v>43656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20618,7 +20621,7 @@
         <v>43656</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20675,7 +20678,7 @@
         <v>43656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20732,7 +20735,7 @@
         <v>43681</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20789,7 +20792,7 @@
         <v>43683</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20846,7 +20849,7 @@
         <v>43683</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20903,7 +20906,7 @@
         <v>43684</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20960,7 +20963,7 @@
         <v>43684</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21017,7 +21020,7 @@
         <v>43689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21074,7 +21077,7 @@
         <v>43691</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21131,7 +21134,7 @@
         <v>43691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21193,7 +21196,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21250,7 +21253,7 @@
         <v>43699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21307,7 +21310,7 @@
         <v>43711</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21364,7 +21367,7 @@
         <v>43712</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21426,7 +21429,7 @@
         <v>43712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21483,7 +21486,7 @@
         <v>43713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21545,7 +21548,7 @@
         <v>43713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21602,7 +21605,7 @@
         <v>43713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21659,7 +21662,7 @@
         <v>43717</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21716,7 +21719,7 @@
         <v>43717</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21773,7 +21776,7 @@
         <v>43717</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21830,7 +21833,7 @@
         <v>43718</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21887,7 +21890,7 @@
         <v>43718</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21949,7 +21952,7 @@
         <v>43719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22006,7 +22009,7 @@
         <v>43723</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22068,7 +22071,7 @@
         <v>43723</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22130,7 +22133,7 @@
         <v>43725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22187,7 +22190,7 @@
         <v>43725</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22244,7 +22247,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22301,7 +22304,7 @@
         <v>43729</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22363,7 +22366,7 @@
         <v>43729</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22425,7 +22428,7 @@
         <v>43729</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22487,7 +22490,7 @@
         <v>43735</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22544,7 +22547,7 @@
         <v>43736</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22606,7 +22609,7 @@
         <v>43736</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22668,7 +22671,7 @@
         <v>43740</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22725,7 +22728,7 @@
         <v>43744</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22787,7 +22790,7 @@
         <v>43745</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22844,7 +22847,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22906,7 +22909,7 @@
         <v>43749</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22963,7 +22966,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23020,7 +23023,7 @@
         <v>43761</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23077,7 +23080,7 @@
         <v>43761</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23134,7 +23137,7 @@
         <v>43768</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23191,7 +23194,7 @@
         <v>43770</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23248,7 +23251,7 @@
         <v>43772</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23310,7 +23313,7 @@
         <v>43773</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23372,7 +23375,7 @@
         <v>43776</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23434,7 +23437,7 @@
         <v>43777</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23491,7 +23494,7 @@
         <v>43777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23548,7 +23551,7 @@
         <v>43781</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23610,7 +23613,7 @@
         <v>43782</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23667,7 +23670,7 @@
         <v>43784</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23729,7 +23732,7 @@
         <v>43787</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23791,7 +23794,7 @@
         <v>43787</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23848,7 +23851,7 @@
         <v>43788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23910,7 +23913,7 @@
         <v>43789</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23967,7 +23970,7 @@
         <v>43791</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24029,7 +24032,7 @@
         <v>43794</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24086,7 +24089,7 @@
         <v>43798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24148,7 +24151,7 @@
         <v>43804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24205,7 +24208,7 @@
         <v>43804</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24282,7 +24285,7 @@
         <v>43808</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24339,7 +24342,7 @@
         <v>43812</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24401,7 +24404,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24458,7 +24461,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24520,7 +24523,7 @@
         <v>43837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24577,7 +24580,7 @@
         <v>43838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24634,7 +24637,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24691,7 +24694,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24748,7 +24751,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24805,7 +24808,7 @@
         <v>43854</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24862,7 +24865,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24924,7 +24927,7 @@
         <v>43859</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24981,7 +24984,7 @@
         <v>43859</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25043,7 +25046,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25100,7 +25103,7 @@
         <v>43860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25157,7 +25160,7 @@
         <v>43860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25214,7 +25217,7 @@
         <v>43860</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25271,7 +25274,7 @@
         <v>43861</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25328,7 +25331,7 @@
         <v>43861</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25390,7 +25393,7 @@
         <v>43861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25452,7 +25455,7 @@
         <v>43864</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25509,7 +25512,7 @@
         <v>43865</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25566,7 +25569,7 @@
         <v>43871</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25628,7 +25631,7 @@
         <v>43872</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25685,7 +25688,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25747,7 +25750,7 @@
         <v>43874</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25804,7 +25807,7 @@
         <v>43874</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25861,7 +25864,7 @@
         <v>43879</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25918,7 +25921,7 @@
         <v>43880</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25975,7 +25978,7 @@
         <v>43885</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26037,7 +26040,7 @@
         <v>43885</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26099,7 +26102,7 @@
         <v>43892</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26161,7 +26164,7 @@
         <v>43892</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26223,7 +26226,7 @@
         <v>43896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26280,7 +26283,7 @@
         <v>43902</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26342,7 +26345,7 @@
         <v>43902</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26404,7 +26407,7 @@
         <v>43902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26466,7 +26469,7 @@
         <v>43906</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26523,7 +26526,7 @@
         <v>43906</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26580,7 +26583,7 @@
         <v>43906</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26637,7 +26640,7 @@
         <v>43908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26694,7 +26697,7 @@
         <v>43908</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26756,7 +26759,7 @@
         <v>43938</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26818,7 +26821,7 @@
         <v>43938</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26880,7 +26883,7 @@
         <v>43942</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26942,7 +26945,7 @@
         <v>43945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26999,7 +27002,7 @@
         <v>43949</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27061,7 +27064,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27118,7 +27121,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27175,7 +27178,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27232,7 +27235,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27289,7 +27292,7 @@
         <v>43973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27346,7 +27349,7 @@
         <v>43977</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27403,7 +27406,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27460,7 +27463,7 @@
         <v>43980</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27517,7 +27520,7 @@
         <v>43985</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27574,7 +27577,7 @@
         <v>43985</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27631,7 +27634,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27688,7 +27691,7 @@
         <v>44002</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27745,7 +27748,7 @@
         <v>44004</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27802,7 +27805,7 @@
         <v>44008</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27859,7 +27862,7 @@
         <v>44008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27916,7 +27919,7 @@
         <v>44012</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27973,7 +27976,7 @@
         <v>44018</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28030,7 +28033,7 @@
         <v>44021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28087,7 +28090,7 @@
         <v>44035</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28144,7 +28147,7 @@
         <v>44040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28206,7 +28209,7 @@
         <v>44046</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28268,7 +28271,7 @@
         <v>44046</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28325,7 +28328,7 @@
         <v>44047</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28382,7 +28385,7 @@
         <v>44054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28439,7 +28442,7 @@
         <v>44054</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28496,7 +28499,7 @@
         <v>44054</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28553,7 +28556,7 @@
         <v>44054</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28610,7 +28613,7 @@
         <v>44054</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28667,7 +28670,7 @@
         <v>44054</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28724,7 +28727,7 @@
         <v>44054</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28781,7 +28784,7 @@
         <v>44054</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28838,7 +28841,7 @@
         <v>44054</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28895,7 +28898,7 @@
         <v>44063</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28952,7 +28955,7 @@
         <v>44064</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29009,7 +29012,7 @@
         <v>44064</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29066,7 +29069,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29123,7 +29126,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29180,7 +29183,7 @@
         <v>44084</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29237,7 +29240,7 @@
         <v>44089</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29294,7 +29297,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29356,7 +29359,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29413,7 +29416,7 @@
         <v>44096</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29470,7 +29473,7 @@
         <v>44099</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29527,7 +29530,7 @@
         <v>44099</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29584,7 +29587,7 @@
         <v>44110</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29641,7 +29644,7 @@
         <v>44111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29698,7 +29701,7 @@
         <v>44111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29755,7 +29758,7 @@
         <v>44112</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29812,7 +29815,7 @@
         <v>44125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29874,7 +29877,7 @@
         <v>44132</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29931,7 +29934,7 @@
         <v>44138</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29988,7 +29991,7 @@
         <v>44138</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30050,7 +30053,7 @@
         <v>44140</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30112,7 +30115,7 @@
         <v>44141</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30174,7 +30177,7 @@
         <v>44148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30231,7 +30234,7 @@
         <v>44150</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30288,7 +30291,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30350,7 +30353,7 @@
         <v>44158</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30407,7 +30410,7 @@
         <v>44158</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30469,7 +30472,7 @@
         <v>44162</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30526,7 +30529,7 @@
         <v>44163</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30583,7 +30586,7 @@
         <v>44173</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30640,7 +30643,7 @@
         <v>44174</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30697,7 +30700,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30754,7 +30757,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30811,7 +30814,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30868,7 +30871,7 @@
         <v>44176</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30925,7 +30928,7 @@
         <v>44179</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30982,7 +30985,7 @@
         <v>44180</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31039,7 +31042,7 @@
         <v>44187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31096,7 +31099,7 @@
         <v>44187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31153,7 +31156,7 @@
         <v>44200</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31210,7 +31213,7 @@
         <v>44203</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31267,7 +31270,7 @@
         <v>44204</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31324,7 +31327,7 @@
         <v>44204</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31386,7 +31389,7 @@
         <v>44211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31443,7 +31446,7 @@
         <v>44218</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31500,7 +31503,7 @@
         <v>44218</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31557,7 +31560,7 @@
         <v>44221</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31614,7 +31617,7 @@
         <v>44230</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31671,7 +31674,7 @@
         <v>44230</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31728,7 +31731,7 @@
         <v>44236</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31785,7 +31788,7 @@
         <v>44237</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31842,7 +31845,7 @@
         <v>44239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31899,7 +31902,7 @@
         <v>44244</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31956,7 +31959,7 @@
         <v>44246</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32013,7 +32016,7 @@
         <v>44249</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32075,7 +32078,7 @@
         <v>44249</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32132,7 +32135,7 @@
         <v>44256</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32189,7 +32192,7 @@
         <v>44258</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32246,7 +32249,7 @@
         <v>44269</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32303,7 +32306,7 @@
         <v>44272</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32360,7 +32363,7 @@
         <v>44278</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32417,7 +32420,7 @@
         <v>44278</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32474,7 +32477,7 @@
         <v>44286</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32536,7 +32539,7 @@
         <v>44294</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32593,7 +32596,7 @@
         <v>44294</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32650,7 +32653,7 @@
         <v>44294</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32707,7 +32710,7 @@
         <v>44294</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32764,7 +32767,7 @@
         <v>44295</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32821,7 +32824,7 @@
         <v>44298</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32878,7 +32881,7 @@
         <v>44298</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32935,7 +32938,7 @@
         <v>44298</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32992,7 +32995,7 @@
         <v>44302</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33049,7 +33052,7 @@
         <v>44307</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33106,7 +33109,7 @@
         <v>44308</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33168,7 +33171,7 @@
         <v>44309</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33225,7 +33228,7 @@
         <v>44312</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33282,7 +33285,7 @@
         <v>44312</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33339,7 +33342,7 @@
         <v>44314</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33401,7 +33404,7 @@
         <v>44319</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33458,7 +33461,7 @@
         <v>44319</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33515,7 +33518,7 @@
         <v>44319</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33572,7 +33575,7 @@
         <v>44330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33634,7 +33637,7 @@
         <v>44330</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33696,7 +33699,7 @@
         <v>44334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33753,7 +33756,7 @@
         <v>44334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33810,7 +33813,7 @@
         <v>44335</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33872,7 +33875,7 @@
         <v>44335</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33929,7 +33932,7 @@
         <v>44335</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33991,7 +33994,7 @@
         <v>44335</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34048,7 +34051,7 @@
         <v>44335</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34110,7 +34113,7 @@
         <v>44339</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34172,7 +34175,7 @@
         <v>44342</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34234,7 +34237,7 @@
         <v>44342</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34291,7 +34294,7 @@
         <v>44342</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34353,7 +34356,7 @@
         <v>44368</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34410,7 +34413,7 @@
         <v>44369</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34467,7 +34470,7 @@
         <v>44369</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34524,7 +34527,7 @@
         <v>44369</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34581,7 +34584,7 @@
         <v>44369</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34638,7 +34641,7 @@
         <v>44370</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34695,7 +34698,7 @@
         <v>44375</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34752,7 +34755,7 @@
         <v>44375</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34809,7 +34812,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34871,7 +34874,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34928,7 +34931,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34985,7 +34988,7 @@
         <v>44386</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35042,7 +35045,7 @@
         <v>44393</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35099,7 +35102,7 @@
         <v>44393</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35156,7 +35159,7 @@
         <v>44398</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35213,7 +35216,7 @@
         <v>44399</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35270,7 +35273,7 @@
         <v>44409</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35327,7 +35330,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35384,7 +35387,7 @@
         <v>44426</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35441,7 +35444,7 @@
         <v>44426</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35498,7 +35501,7 @@
         <v>44426</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35575,7 +35578,7 @@
         <v>44426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35632,7 +35635,7 @@
         <v>44426</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35689,7 +35692,7 @@
         <v>44427</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35746,7 +35749,7 @@
         <v>44433</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35803,7 +35806,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35860,7 +35863,7 @@
         <v>44433</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35917,7 +35920,7 @@
         <v>44433</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35974,7 +35977,7 @@
         <v>44433</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36031,7 +36034,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36088,7 +36091,7 @@
         <v>44433</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36145,7 +36148,7 @@
         <v>44433</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36202,7 +36205,7 @@
         <v>44433</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36259,7 +36262,7 @@
         <v>44435</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36316,7 +36319,7 @@
         <v>44447</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36373,7 +36376,7 @@
         <v>44447</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36435,7 +36438,7 @@
         <v>44447</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36497,7 +36500,7 @@
         <v>44447</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36559,7 +36562,7 @@
         <v>44449</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36616,7 +36619,7 @@
         <v>44449</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36678,7 +36681,7 @@
         <v>44461</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36735,7 +36738,7 @@
         <v>44463</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36792,7 +36795,7 @@
         <v>44466</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36849,7 +36852,7 @@
         <v>44469</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36906,7 +36909,7 @@
         <v>44474</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36963,7 +36966,7 @@
         <v>44474</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37020,7 +37023,7 @@
         <v>44480</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37077,7 +37080,7 @@
         <v>44484</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37134,7 +37137,7 @@
         <v>44484</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37191,7 +37194,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37248,7 +37251,7 @@
         <v>44487</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37305,7 +37308,7 @@
         <v>44487</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37362,7 +37365,7 @@
         <v>44488</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37419,7 +37422,7 @@
         <v>44504</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37476,7 +37479,7 @@
         <v>44511</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37538,7 +37541,7 @@
         <v>44511</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37600,7 +37603,7 @@
         <v>44512</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37657,7 +37660,7 @@
         <v>44512</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37734,7 +37737,7 @@
         <v>44515</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37791,7 +37794,7 @@
         <v>44515</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37848,7 +37851,7 @@
         <v>44515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37905,7 +37908,7 @@
         <v>44530</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37962,7 +37965,7 @@
         <v>44546</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38019,7 +38022,7 @@
         <v>44564</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38076,7 +38079,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38133,7 +38136,7 @@
         <v>44571</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38190,7 +38193,7 @@
         <v>44573</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38252,7 +38255,7 @@
         <v>44586</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38309,7 +38312,7 @@
         <v>44589</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38371,7 +38374,7 @@
         <v>44595</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38428,7 +38431,7 @@
         <v>44596</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38485,7 +38488,7 @@
         <v>44610</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38547,7 +38550,7 @@
         <v>44615</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38604,7 +38607,7 @@
         <v>44617</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38686,7 +38689,7 @@
         <v>44617</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38748,7 +38751,7 @@
         <v>44621</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38805,7 +38808,7 @@
         <v>44621</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38862,7 +38865,7 @@
         <v>44623</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38924,7 +38927,7 @@
         <v>44623</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38986,7 +38989,7 @@
         <v>44623</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39048,7 +39051,7 @@
         <v>44631</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39110,7 +39113,7 @@
         <v>44641</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39172,7 +39175,7 @@
         <v>44646</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39229,7 +39232,7 @@
         <v>44646</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39286,7 +39289,7 @@
         <v>44646</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39343,7 +39346,7 @@
         <v>44649</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39400,7 +39403,7 @@
         <v>44650</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39457,7 +39460,7 @@
         <v>44651</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39514,7 +39517,7 @@
         <v>44655</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39571,7 +39574,7 @@
         <v>44669</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39628,7 +39631,7 @@
         <v>44683</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39690,7 +39693,7 @@
         <v>44694</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39752,7 +39755,7 @@
         <v>44719</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39809,7 +39812,7 @@
         <v>44721</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39866,7 +39869,7 @@
         <v>44724</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39923,7 +39926,7 @@
         <v>44734</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39980,7 +39983,7 @@
         <v>44748</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40037,7 +40040,7 @@
         <v>44748</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40099,7 +40102,7 @@
         <v>44755</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40161,7 +40164,7 @@
         <v>44756</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40218,7 +40221,7 @@
         <v>44757</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40280,7 +40283,7 @@
         <v>44783</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40342,7 +40345,7 @@
         <v>44783</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40399,7 +40402,7 @@
         <v>44783</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40456,7 +40459,7 @@
         <v>44785</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40513,7 +40516,7 @@
         <v>44785</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40570,7 +40573,7 @@
         <v>44785</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40627,7 +40630,7 @@
         <v>44791</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40689,7 +40692,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40751,7 +40754,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40808,7 +40811,7 @@
         <v>44795</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40865,7 +40868,7 @@
         <v>44796</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40922,7 +40925,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40979,7 +40982,7 @@
         <v>44811</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41036,7 +41039,7 @@
         <v>44812</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41093,7 +41096,7 @@
         <v>44820</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41150,7 +41153,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41207,7 +41210,7 @@
         <v>44845</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41269,7 +41272,7 @@
         <v>44846</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41331,7 +41334,7 @@
         <v>44847</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41388,7 +41391,7 @@
         <v>44848</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41450,7 +41453,7 @@
         <v>44848</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41512,7 +41515,7 @@
         <v>44848</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41574,7 +41577,7 @@
         <v>44848</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41636,7 +41639,7 @@
         <v>44851</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41693,7 +41696,7 @@
         <v>44858</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41755,7 +41758,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41817,7 +41820,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41879,7 +41882,7 @@
         <v>44860</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41941,7 +41944,7 @@
         <v>44860</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41998,7 +42001,7 @@
         <v>44867</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42055,7 +42058,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42112,7 +42115,7 @@
         <v>44888</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42169,7 +42172,7 @@
         <v>44890</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42226,7 +42229,7 @@
         <v>44896</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42283,7 +42286,7 @@
         <v>44901</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42340,7 +42343,7 @@
         <v>44901</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42397,7 +42400,7 @@
         <v>44904</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42454,7 +42457,7 @@
         <v>44904</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42511,7 +42514,7 @@
         <v>44907</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42568,7 +42571,7 @@
         <v>44908</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42625,7 +42628,7 @@
         <v>44908</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42687,7 +42690,7 @@
         <v>44910</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42744,7 +42747,7 @@
         <v>44912</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42806,7 +42809,7 @@
         <v>44912</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42868,7 +42871,7 @@
         <v>44912</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42930,7 +42933,7 @@
         <v>44916</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42987,7 +42990,7 @@
         <v>44923</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43044,7 +43047,7 @@
         <v>44924</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43101,7 +43104,7 @@
         <v>44929</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43158,7 +43161,7 @@
         <v>44930</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43215,7 +43218,7 @@
         <v>44931</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43272,7 +43275,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43334,7 +43337,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43396,7 +43399,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43458,7 +43461,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43515,7 +43518,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43577,7 +43580,7 @@
         <v>44937</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43634,7 +43637,7 @@
         <v>44938</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43691,7 +43694,7 @@
         <v>44939</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43748,7 +43751,7 @@
         <v>44942</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43805,7 +43808,7 @@
         <v>44944</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43862,7 +43865,7 @@
         <v>44944</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43919,7 +43922,7 @@
         <v>44944</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43976,7 +43979,7 @@
         <v>44945</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44033,7 +44036,7 @@
         <v>44946</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44090,7 +44093,7 @@
         <v>44956</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44147,7 +44150,7 @@
         <v>44956</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44209,7 +44212,7 @@
         <v>44956</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44266,7 +44269,7 @@
         <v>44958</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44323,7 +44326,7 @@
         <v>44960</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44380,7 +44383,7 @@
         <v>44963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44437,7 +44440,7 @@
         <v>44963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44494,7 +44497,7 @@
         <v>44964</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44551,7 +44554,7 @@
         <v>44965</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44608,7 +44611,7 @@
         <v>44970</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44690,7 +44693,7 @@
         <v>44971</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44747,7 +44750,7 @@
         <v>44973</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44804,7 +44807,7 @@
         <v>44973</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44861,7 +44864,7 @@
         <v>44974</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44923,7 +44926,7 @@
         <v>44977</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44980,7 +44983,7 @@
         <v>44977</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45037,7 +45040,7 @@
         <v>44977</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45094,7 +45097,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45151,7 +45154,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45208,7 +45211,7 @@
         <v>44979</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45265,7 +45268,7 @@
         <v>44979</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45322,7 +45325,7 @@
         <v>44979</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45379,7 +45382,7 @@
         <v>44980</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45436,7 +45439,7 @@
         <v>44984</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45493,7 +45496,7 @@
         <v>44984</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45550,7 +45553,7 @@
         <v>44987</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45607,7 +45610,7 @@
         <v>44989</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45664,7 +45667,7 @@
         <v>44989</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45721,7 +45724,7 @@
         <v>44994</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45778,7 +45781,7 @@
         <v>44994</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45840,7 +45843,7 @@
         <v>44994</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45902,7 +45905,7 @@
         <v>44994</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45964,7 +45967,7 @@
         <v>45003</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46041,7 +46044,7 @@
         <v>45007</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46098,7 +46101,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46155,7 +46158,7 @@
         <v>45012</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46212,7 +46215,7 @@
         <v>45016</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46269,7 +46272,7 @@
         <v>45016</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46326,7 +46329,7 @@
         <v>45019</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46383,7 +46386,7 @@
         <v>45020</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46440,7 +46443,7 @@
         <v>45021</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46497,7 +46500,7 @@
         <v>45022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46554,7 +46557,7 @@
         <v>45029</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46616,7 +46619,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46678,7 +46681,7 @@
         <v>45030</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46735,7 +46738,7 @@
         <v>45033</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46792,7 +46795,7 @@
         <v>45033</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46849,7 +46852,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46906,7 +46909,7 @@
         <v>45035</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46963,7 +46966,7 @@
         <v>45035</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47040,7 +47043,7 @@
         <v>45036</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47097,7 +47100,7 @@
         <v>45036</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47154,7 +47157,7 @@
         <v>45036</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47211,7 +47214,7 @@
         <v>45036</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47268,7 +47271,7 @@
         <v>45036</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47325,7 +47328,7 @@
         <v>45040</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47387,7 +47390,7 @@
         <v>45040</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47449,7 +47452,7 @@
         <v>45040</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47506,7 +47509,7 @@
         <v>45040</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47568,7 +47571,7 @@
         <v>45043</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47630,7 +47633,7 @@
         <v>45044</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47687,7 +47690,7 @@
         <v>45048</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47744,7 +47747,7 @@
         <v>45048</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47801,7 +47804,7 @@
         <v>45049</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47858,7 +47861,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47935,7 +47938,7 @@
         <v>45051</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47997,7 +48000,7 @@
         <v>45053</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48054,7 +48057,7 @@
         <v>45057</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48116,7 +48119,7 @@
         <v>45062</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48173,7 +48176,7 @@
         <v>45068</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48230,7 +48233,7 @@
         <v>45068</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48287,7 +48290,7 @@
         <v>45068</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48344,7 +48347,7 @@
         <v>45068</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48401,7 +48404,7 @@
         <v>45068</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48458,7 +48461,7 @@
         <v>45068</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48515,7 +48518,7 @@
         <v>45068</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48572,7 +48575,7 @@
         <v>45072</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48629,7 +48632,7 @@
         <v>45075</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48686,7 +48689,7 @@
         <v>45075</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48743,7 +48746,7 @@
         <v>45076</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48800,7 +48803,7 @@
         <v>45077</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48857,7 +48860,7 @@
         <v>45079</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48914,7 +48917,7 @@
         <v>45085</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48976,7 +48979,7 @@
         <v>45085</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49038,7 +49041,7 @@
         <v>45086</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49095,7 +49098,7 @@
         <v>45089</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49157,7 +49160,7 @@
         <v>45089</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49214,7 +49217,7 @@
         <v>45089</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49271,7 +49274,7 @@
         <v>45090</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49333,7 +49336,7 @@
         <v>45091</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49395,7 +49398,7 @@
         <v>45093</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49452,7 +49455,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49509,7 +49512,7 @@
         <v>45093</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49566,7 +49569,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49623,7 +49626,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49680,7 +49683,7 @@
         <v>45097</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49737,7 +49740,7 @@
         <v>45097</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49794,7 +49797,7 @@
         <v>45097</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49851,7 +49854,7 @@
         <v>45097</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49908,7 +49911,7 @@
         <v>45104</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49970,7 +49973,7 @@
         <v>45104</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50032,7 +50035,7 @@
         <v>45110</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50094,7 +50097,7 @@
         <v>45110</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50151,7 +50154,7 @@
         <v>45110</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50213,7 +50216,7 @@
         <v>45111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50270,7 +50273,7 @@
         <v>45117</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50327,7 +50330,7 @@
         <v>45121</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50384,7 +50387,7 @@
         <v>45127</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50441,7 +50444,7 @@
         <v>45127</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50498,7 +50501,7 @@
         <v>45127</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50555,7 +50558,7 @@
         <v>45131</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50612,7 +50615,7 @@
         <v>45133</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50674,7 +50677,7 @@
         <v>45133</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50736,7 +50739,7 @@
         <v>45133</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50798,7 +50801,7 @@
         <v>45140</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50855,7 +50858,7 @@
         <v>45140</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50912,7 +50915,7 @@
         <v>45140</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50969,7 +50972,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51026,7 +51029,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51083,7 +51086,7 @@
         <v>45140</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51140,7 +51143,7 @@
         <v>45146</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51197,7 +51200,7 @@
         <v>45146</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51259,7 +51262,7 @@
         <v>45146</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51316,7 +51319,7 @@
         <v>45147</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51373,7 +51376,7 @@
         <v>45147</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51430,7 +51433,7 @@
         <v>45147</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51492,7 +51495,7 @@
         <v>45153</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51549,7 +51552,7 @@
         <v>45159</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51606,7 +51609,7 @@
         <v>45173</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51663,7 +51666,7 @@
         <v>45180</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51720,7 +51723,7 @@
         <v>45180</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51777,7 +51780,7 @@
         <v>45187</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>

--- a/Översikt VÄSTERVIK.xlsx
+++ b/Översikt VÄSTERVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y818"/>
+  <dimension ref="A1:Y823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44902</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 58937-2022</t>
+          <t>A 54601-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44896</v>
+        <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -693,39 +693,138 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10.6</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Tallharticka
+Havsörn
+Kandelabersvamp
+Koralltaggsvamp
+Mindre hackspett
+Orange taggsvamp
+Spillkråka
+Svart taggsvamp
+Svävflugedagsvärmare
+Ullticka
+Dropptaggsvamp
+Fjällig taggsvamp s.str.
+Grönpyrola
+Rävticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 54601-2022.xlsx", "A 54601-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 54601-2022.png", "A 54601-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 54601-2022.docx", "A 54601-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 54601-2022.docx", "A 54601-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 54601-2022.docx", "A 54601-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 54601-2022.docx", "A 54601-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 58937-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÄSTERVIK</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Fransporing
 Knärot
@@ -744,130 +843,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 58937-2022.xlsx", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 58937-2022.png", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/knärot/A 58937-2022.png", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 58937-2022.docx", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 58937-2022.docx", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 58937-2022.docx", "A 58937-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 58937-2022.docx", "A 58937-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 54601-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44883</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÄSTERVIK</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Tallharticka
-Havsörn
-Kandelabersvamp
-Koralltaggsvamp
-Mindre hackspett
-Orange taggsvamp
-Spillkråka
-Svävflugedagsvärmare
-Ullticka
-Dropptaggsvamp
-Fjällig taggsvamp s.str.
-Grönpyrola
-Rävticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/artfynd/A 54601-2022.xlsx", "A 54601-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/kartor/A 54601-2022.png", "A 54601-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomål/A 54601-2022.docx", "A 54601-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/klagomålsmail/A 54601-2022.docx", "A 54601-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsyn/A 54601-2022.docx", "A 54601-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERVIK/tillsynsmail/A 54601-2022.docx", "A 54601-2022")</f>
         <v/>
       </c>
     </row>
@@ -881,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +983,7 @@
         <v>44239</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1083,7 @@
         <v>44393</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1183,7 @@
         <v>43791</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1281,7 @@
         <v>44284</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1378,7 @@
         <v>43753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1474,7 @@
         <v>43917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1565,7 +1566,7 @@
         <v>44795</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1661,7 @@
         <v>44120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1754,7 +1755,7 @@
         <v>44467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1845,7 @@
         <v>44497</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1944,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2033,7 +2034,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2123,7 +2124,7 @@
         <v>44994</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2218,7 +2219,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2312,7 +2313,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2406,7 +2407,7 @@
         <v>45078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2499,7 +2500,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2587,7 +2588,7 @@
         <v>43707</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2680,7 @@
         <v>43852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2772,7 +2773,7 @@
         <v>43915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2864,7 +2865,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2957,7 @@
         <v>44505</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3049,7 @@
         <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3136,7 +3137,7 @@
         <v>44249</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3229,7 @@
         <v>44342</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3320,7 @@
         <v>44505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3411,7 @@
         <v>44529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3506,7 +3507,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3593,7 +3594,7 @@
         <v>44896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3684,7 +3685,7 @@
         <v>45000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3776,7 @@
         <v>45110</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3866,7 +3867,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3957,7 +3958,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4043,7 +4044,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4130,7 @@
         <v>43782</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4215,7 +4216,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4301,7 +4302,7 @@
         <v>44210</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4388,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4473,7 +4474,7 @@
         <v>44438</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4559,7 +4560,7 @@
         <v>44462</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4645,7 +4646,7 @@
         <v>44467</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4731,7 +4732,7 @@
         <v>44480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4817,7 +4818,7 @@
         <v>44494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4907,7 +4908,7 @@
         <v>44657</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4998,7 +4999,7 @@
         <v>44729</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5088,7 +5089,7 @@
         <v>44812</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5178,7 +5179,7 @@
         <v>44848</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5269,7 +5270,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5355,7 +5356,7 @@
         <v>44867</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5441,7 +5442,7 @@
         <v>44918</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5531,7 +5532,7 @@
         <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5621,7 +5622,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5711,7 +5712,7 @@
         <v>44946</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5801,7 +5802,7 @@
         <v>44979</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5891,7 +5892,7 @@
         <v>44989</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5981,7 +5982,7 @@
         <v>45011</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6071,7 +6072,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6162,7 @@
         <v>43377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6246,7 +6247,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6332,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6426,7 @@
         <v>43538</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6510,7 +6511,7 @@
         <v>43614</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6600,7 +6601,7 @@
         <v>43614</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6690,7 +6691,7 @@
         <v>43614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6781,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6865,7 +6866,7 @@
         <v>43908</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6956,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7044,7 +7045,7 @@
         <v>44064</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7129,7 +7130,7 @@
         <v>44175</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7214,7 +7215,7 @@
         <v>44195</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7299,7 +7300,7 @@
         <v>44314</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7389,7 +7390,7 @@
         <v>44336</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7478,7 +7479,7 @@
         <v>44342</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7572,7 +7573,7 @@
         <v>44342</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7662,7 +7663,7 @@
         <v>44343</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7756,7 +7757,7 @@
         <v>44361</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7850,7 +7851,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7939,7 +7940,7 @@
         <v>44398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8028,7 +8029,7 @@
         <v>44437</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8113,7 +8114,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8198,7 +8199,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8283,7 +8284,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8372,7 +8373,7 @@
         <v>44480</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8457,7 +8458,7 @@
         <v>44498</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8542,7 +8543,7 @@
         <v>44574</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8631,7 +8632,7 @@
         <v>44641</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8716,7 +8717,7 @@
         <v>44659</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8801,7 +8802,7 @@
         <v>44697</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8890,7 +8891,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8975,7 +8976,7 @@
         <v>44825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9065,7 +9066,7 @@
         <v>44848</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9155,7 +9156,7 @@
         <v>44848</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9245,7 +9246,7 @@
         <v>44867</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9335,7 +9336,7 @@
         <v>44881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9424,7 +9425,7 @@
         <v>44904</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9509,7 +9510,7 @@
         <v>44931</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9599,7 +9600,7 @@
         <v>44935</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9684,7 +9685,7 @@
         <v>44935</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9774,7 +9775,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9864,7 +9865,7 @@
         <v>45014</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9953,7 +9954,7 @@
         <v>45030</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10042,7 +10043,7 @@
         <v>45068</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10127,7 +10128,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10216,7 +10217,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10305,7 +10306,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10394,7 +10395,7 @@
         <v>45089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10479,7 +10480,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10568,7 +10569,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10657,7 +10658,7 @@
         <v>43315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10714,7 +10715,7 @@
         <v>43322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10771,7 +10772,7 @@
         <v>43334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10828,7 +10829,7 @@
         <v>43334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10885,7 +10886,7 @@
         <v>43334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10962,7 +10963,7 @@
         <v>43334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11019,7 +11020,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11076,7 +11077,7 @@
         <v>43348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11133,7 +11134,7 @@
         <v>43348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11190,7 +11191,7 @@
         <v>43349</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11247,7 +11248,7 @@
         <v>43354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11309,7 +11310,7 @@
         <v>43354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11366,7 +11367,7 @@
         <v>43363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11423,7 +11424,7 @@
         <v>43364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11480,7 +11481,7 @@
         <v>43364</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11537,7 +11538,7 @@
         <v>43364</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11594,7 +11595,7 @@
         <v>43364</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11651,7 +11652,7 @@
         <v>43364</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11708,7 +11709,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11765,7 +11766,7 @@
         <v>43377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11822,7 +11823,7 @@
         <v>43377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11879,7 +11880,7 @@
         <v>43377</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11936,7 +11937,7 @@
         <v>43378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11993,7 +11994,7 @@
         <v>43382</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12050,7 +12051,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12107,7 +12108,7 @@
         <v>43393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12164,7 +12165,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12221,7 +12222,7 @@
         <v>43397</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12278,7 +12279,7 @@
         <v>43399</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12335,7 +12336,7 @@
         <v>43402</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12392,7 +12393,7 @@
         <v>43402</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12449,7 +12450,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12506,7 +12507,7 @@
         <v>43416</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12563,7 +12564,7 @@
         <v>43416</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12620,7 +12621,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12677,7 +12678,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12734,7 +12735,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12791,7 +12792,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12848,7 +12849,7 @@
         <v>43423</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12905,7 +12906,7 @@
         <v>43424</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <i